--- a/数据整理/stocks/A股/上证主板/603606-东方电缆.xlsx
+++ b/数据整理/stocks/A股/上证主板/603606-东方电缆.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>860006</t>
+          <t>519983</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>光大阳光优选一年持有混合A</t>
+          <t>长信量化先锋混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>84.89</t>
+          <t>12.72</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2620</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>860055</t>
+          <t>519975</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>光大阳光优选一年持有混合B</t>
+          <t>长信量化中小盘股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>84.89</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1016</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>860056</t>
+          <t>860006</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>光大阳光优选一年持有混合C</t>
+          <t>光大阳光优选一年持有混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>84.89</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.07</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0891</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003366</t>
+          <t>860055</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>浙商汇金中证转型成长指数</t>
+          <t>光大阳光优选一年持有混合B</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>95.23</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>84.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0891</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>519975</t>
+          <t>161039</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>长信量化中小盘股票</t>
+          <t>富国中证1000指数增强LOF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.62</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004221</t>
+          <t>161037</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>长信量化先锋混合C</t>
+          <t>富国中证高端制造指数增强（LOF）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.53</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -670,15 +740,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>90.92</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1.80</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>6</v>
       </c>
     </row>
@@ -688,25 +768,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>519983</t>
+          <t>003366</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>长信量化先锋混合A</t>
+          <t>浙商汇金中证转型成长指数</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.53</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>95.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>7</v>
       </c>
     </row>
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>161037</t>
+          <t>004221</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>富国中证高端制造指数增强（LOF）</t>
+          <t>长信量化先锋混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93.99</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,34 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>161039</t>
+          <t>860056</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>富国中证1000指数增强LOF</t>
+          <t>光大阳光优选一年持有混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>93.25</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
+          <t>84.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -777,7 +885,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -798,15 +906,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -828,15 +946,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>17.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>88.70</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.13</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3636</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -846,26 +974,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000706</t>
+          <t>519983</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中邮多策略灵活配置混合</t>
+          <t>长信量化先锋混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>59.43</t>
+          <t>10.71</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2163</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -884,15 +1022,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>90.64</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1.10</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0681</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
       </c>
     </row>
@@ -902,26 +1050,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001479</t>
+          <t>519975</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中邮风格轮动灵活配置混合</t>
+          <t>长信量化中小盘股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>87.54</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -930,26 +1088,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>519975</t>
+          <t>001479</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>长信量化中小盘股票</t>
+          <t>中邮风格轮动灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.04</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -958,26 +1126,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>519983</t>
+          <t>161039</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>长信量化先锋混合A</t>
+          <t>富国中证1000指数增强LOF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>92.31</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -986,26 +1164,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004221</t>
+          <t>000706</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>长信量化先锋混合C</t>
+          <t>中邮多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>92.31</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
+          <t>59.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1014,26 +1202,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>161039</t>
+          <t>004221</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>富国中证1000指数增强LOF</t>
+          <t>长信量化先锋混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>92.23</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603606-东方电缆.xlsx
+++ b/数据整理/stocks/A股/上证主板/603606-东方电缆.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1237,4 +1238,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000457</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4492</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>377010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2426</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001479</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中邮风格轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009327</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009328</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603606-东方电缆.xlsx
+++ b/数据整理/stocks/A股/上证主板/603606-东方电缆.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1484,4 +1485,478 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001224</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中邮新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9229</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011346</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>淳厚鑫淳一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1613</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001403</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商国企改革主题混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1487</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012426</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方价值臻选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>59.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1131</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001536</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方君选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>56.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001181</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方改革机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>67.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004446</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方荣年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>202213</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方核心竞争混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>62.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012427</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方价值臻选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>59.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003366</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浙商汇金中证转型成长指数</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004447</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方荣年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603606-东方电缆.xlsx
+++ b/数据整理/stocks/A股/上证主板/603606-东方电缆.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1959,4 +1960,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603606-东方电缆.xlsx
+++ b/数据整理/stocks/A股/上证主板/603606-东方电缆.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1968,7 +1969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1979,17 +1980,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1999,14 +2020,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.48</v>
+          <t>008985</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红启东三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>155.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.0360</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2015,14 +2058,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.73</v>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>54.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6091</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2031,14 +2096,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.76</v>
+          <t>002803</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>58.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8866</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2047,13 +2134,2697 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010341</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>36.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6662</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>910022</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>27.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0439</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005821</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家新机遇龙头企业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>70.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9801</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161706</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商优质成长混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>75.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8372</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009800</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长盛制造精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8140</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>169102</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方红睿阳三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>24.32</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7491</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012835</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商景气精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>66.96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7310</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010225</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.90</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6422</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160813</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长盛同盛成长优选灵活配置混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.30</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.56</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4957</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008264</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方ESG主题股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>27.88</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.57</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4767</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519039</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长盛同德主题混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3889</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001403</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商国企改革主题混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2362</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001471</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>融通新能源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2297</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519158</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>新华趋势领航混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2132</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010155</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长盛核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1903</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001581</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安沪港深通精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1825</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009486</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1808</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012836</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商景气精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>66.96</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1806</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>501073</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华安科创主题 3 年封闭运作灵活配置 混合型</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11.63</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>44.09</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1663</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012126</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰达宏利新能源股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1638</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011346</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>淳厚鑫淳一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>78.72</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1633</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009891</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>融通产业趋势臻选股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1477</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>162202</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>泰达宏利周期混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1436</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010342</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>81.82</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1430</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010130</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>海富通惠增多策略一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>63.16</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1420</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003416</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>80.93</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1310</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000534</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长盛高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1275</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012127</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>泰达宏利新能源股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1113</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004128</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1065</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008445</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>融通产业趋势先锋股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1061</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012454</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1011</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001852</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007527</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0941</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009651</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0868</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009652</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000598</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长盛生态环境主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002156</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长盛盛世灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>30.78</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>080002</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长盛创新先锋混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>79.22</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008265</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>南方ESG主题股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>84.57</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>519025</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>海富通领先成长混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004301</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>25.45</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005815</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>农银汇理睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>80.61</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002179</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华安事件驱动量化策略混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009487</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>012455</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007261</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>融通消费升级混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002161</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>银华万物互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>20.91</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>000679</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>85.35</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>162214</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>泰达宏利领先中小盘混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>167702</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票(LOF)A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010156</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长盛核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005903</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>泰达宏利绩优增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006181</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>78.47</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>167703</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票(LOF)C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>003004</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>招商睿祥定期开放混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>45.36</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001659</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>富安达新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009801</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>长盛制造精选混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001830</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>融通跨界成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>006182</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>78.47</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>009273</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>006025</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>诺安优化配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>67.41</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002157</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>长盛盛世灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>30.78</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010131</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>海富通惠增多策略一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>63.16</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>007528</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>002416</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>85.35</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>004302</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>25.45</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>007952</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>80.93</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>007040</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>71</v>
+      </c>
+      <c r="D2" t="n">
+        <v>23.49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>10</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.58</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603606-东方电缆.xlsx
+++ b/数据整理/stocks/A股/上证主板/603606-东方电缆.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4723,7 +4724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4734,17 +4735,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4754,14 +4775,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>71</v>
-      </c>
-      <c r="D2" t="n">
-        <v>23.49</v>
+          <t>008985</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红启东三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>130.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.5045</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -4770,14 +4813,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.48</v>
+          <t>100020</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国天益价值混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>76.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.7622</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -4786,14 +4851,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.73</v>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>42.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7817</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -4802,14 +4889,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.76</v>
+          <t>002803</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>41.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6273</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -4818,13 +4927,3884 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>590002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中邮核心成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>42.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>66.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4176</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001852</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>26.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3372</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>700003</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>平安策略先锋混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>72.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1761</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>910022</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1075</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>952009</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>36.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0604</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010699</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方红创新趋势混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>30.12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8916</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013450</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时凤凰领航混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>43.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>61.66</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8363</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>952099</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>28.64</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8334</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000566</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>19.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7927</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010694</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>17.21</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7073</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004390</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15.43</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6928</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010885</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长盛优势企业精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>15.37</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6886</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>910028</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方红内需增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.44</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6720</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010225</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>13.27</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6635</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012483</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源优质龙头6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>17.75</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>81.64</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6230</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>970016</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中信建投价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>78.12</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5708</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>160813</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长盛同盛成长优选灵活配置混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>12.92</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>77.90</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5491</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519039</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长盛同德主题混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>79.80</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5230</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004745</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长盛创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>13.89</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5084</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005630</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安研究精选混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4971</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>501075</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>17.95</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>79.41</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4918</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009636</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气优选混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>10.19</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4341</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013451</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时凤凰领航混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>22.15</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>61.66</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4275</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>202027</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>15.67</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4184</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010611</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>12.80</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3981</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007968</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3951</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>169102</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>东方红睿阳三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>81.40</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3889</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004391</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3471</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000967</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2509</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012243</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>东方红内需增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2305</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001471</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>融通新能源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2175</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011346</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>淳厚鑫淳一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>67.80</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2133</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012484</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>前海开源优质龙头6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>81.64</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2043</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009800</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长盛制造精选混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>80.59</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1845</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000534</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长盛高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>74.39</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1821</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008009</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华商高端装备制造股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1701</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009891</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>融通产业趋势臻选股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1681</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002376</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国寿安保核心产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1638</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005164</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富荣福锦混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>61.90</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1584</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010612</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1574</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005165</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>富荣福锦混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>61.90</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1564</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>013431</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气汇选三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>53.15</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1478</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002269</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>银华大数据灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1449</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>519158</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>新华趋势领航混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1449</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010155</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>长盛核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>75.19</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1424</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001280</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>银华聚利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1415</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012454</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>76.84</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1314</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005498</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>银华积极成长混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>83.44</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1308</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>008373</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1236</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>519095</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>新华行业周期轮换混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1176</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>008445</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>融通产业趋势先锋股票</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1053</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>000598</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>长盛生态环境主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>80.08</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1028</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>970017</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中信建投价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>78.12</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0971</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>630015</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华商大盘量化精选混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>200010</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>长城双动力混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>002272</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>新华科技创新主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005894</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华夏优势精选股票</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>006430</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>凯石澜龙头经济定期开放混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>69.36</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002156</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>长盛盛世灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>28.47</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005207</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>000030</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>长城核心优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>080002</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>长盛创新先锋混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>74.24</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>000567</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>广发聚祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>73.70</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>005815</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>农银汇理睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>70.36</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>004128</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001097</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极优选股票</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>007040</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011307</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>富国天益价值混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>012445</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华富新能源股票型发起式证券投资基金</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>002179</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华安事件驱动量化策略混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010886</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>长盛优势企业精选混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>79.73</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>009486</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>000755</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>富安达新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>88.24</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>012455</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>76.84</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>013432</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气汇选三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>53.15</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>007261</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>融通消费升级混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>005175</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>国寿安保消费新蓝海灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>86.15</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>010923</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>永赢鑫欣混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>30.35</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>162214</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>泰达宏利领先中小盘混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>000679</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>74.75</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>009487</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>002326</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>银华聚利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010156</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>长盛核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>75.19</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>007527</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>006181</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>007056</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>银华积极精选混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010291</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010028</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>009801</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>长盛制造精选混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>80.59</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>001830</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>融通跨界成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>009273</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>006182</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>007257</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>凯石沣混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>72.94</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>002157</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>长盛盛世灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>28.47</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>008374</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>007528</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>007258</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>凯石沣混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>72.94</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>002416</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>74.75</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>007501</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>79.41</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>103</v>
+      </c>
+      <c r="D2" t="n">
+        <v>39.52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>71</v>
+      </c>
+      <c r="D3" t="n">
+        <v>23.49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>10</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.58</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603606-东方电缆.xlsx
+++ b/数据整理/stocks/A股/上证主板/603606-东方电缆.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8687,7 +8688,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8698,17 +8699,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8718,14 +8739,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>103</v>
-      </c>
-      <c r="D2" t="n">
-        <v>39.52</v>
+          <t>008985</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红启东三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>146.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.6189</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -8734,14 +8777,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>71</v>
-      </c>
-      <c r="D3" t="n">
-        <v>23.49</v>
+          <t>100020</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国天益价值混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>74.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.6294</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -8750,14 +8815,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.48</v>
+          <t>040035</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>64.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.6488</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -8766,14 +8853,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.73</v>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>48.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.3575</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -8782,14 +8891,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>8</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.76</v>
+          <t>009644</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方阿尔法优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>68.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.9516</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -8798,13 +8929,8459 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>002803</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方红沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>45.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.4186</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011037</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国长期成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>62.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.3295</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>100022</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国天瑞强势地区精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>48.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.97</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.8731</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013450</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时凤凰领航混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>44.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>71.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.6439</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>700003</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>平安策略先锋混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.6262</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001852</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>31.76</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.5753</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>910022</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>24.82</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.4594</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005739</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国转型机遇混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>49.80</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.4342</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009645</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方阿尔法优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>31.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.3589</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014460</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>平安品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.2927</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>161606</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>融通行业景气混合A/B</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>26.41</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.1251</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009646</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>20.79</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.1019</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012475</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>平安优质企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>25.61</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.9962</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010694</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>16.20</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.9461</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004390</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>17.03</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.9281</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010225</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>15.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.8838</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011704</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东方阿尔法产业先锋混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>23.58</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.8795</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>910028</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东方红内需增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>14.78</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.8705</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013451</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时凤凰领航混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>22.44</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>71.97</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.8348</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>100056</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国低碳环保混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>26.88</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.8279</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>952009</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>36.32</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>83.91</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.8245</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>014057</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国金安均衡精选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>25.76</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.8114</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>160813</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长盛同盛成长优选灵活配置混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>13.80</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>77.00</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.7935</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014292</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实产业领先混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>16.08</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.7879</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010885</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长盛优势企业精选混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>13.01</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.7845</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>202011</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南方优选价值混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>13.06</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.7549</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005299</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>22.23</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.7358</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>501075</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>12.63</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.7300</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000566</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.7029</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005821</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>万家新机遇龙头企业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>67.21</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.6992</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>013141</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中信保诚弘远混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>20.98</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.6881</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009681</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>南方创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.6746</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>952099</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>28.03</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>83.91</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.6363</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005630</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华安研究精选混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>11.16</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>84.22</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.6272</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>165516</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>信诚周期轮动混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>18.94</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.6231</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>200015</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长城优化升级混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>17.74</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.6227</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>519039</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长盛同德主题混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>79.02</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.6175</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>169102</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>东方红睿阳三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.5786</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>000327</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>南方潜力新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>11.80</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.5546</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010611</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.5409</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010132</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>南方创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.5198</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013960</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>万家新机遇成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>14.60</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>65.89</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.5081</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010330</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>12.46</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>76.27</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.5071</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011212</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>13.61</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>84.69</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.4301</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004391</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3831</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006527</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>富国优质发展混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3679</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011837</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>鹏扬中国优质成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.3480</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007968</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.3425</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009636</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气优选混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.3358</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>000534</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>长盛高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>78.07</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.3268</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>610004</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>信达澳银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.3239</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002376</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>国寿安保核心产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.3196</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>013417</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>博时核心资产精选混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>78.78</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.3059</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>004745</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>长盛创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.3052</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001280</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>银华聚利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.3002</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>012243</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>东方红内需增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2980</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005300</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2913</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005840</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>富国产业驱动混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>83.12</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2881</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009800</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>长盛制造精选混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2847</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011346</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>淳厚鑫淳一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>77.84</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2819</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>001471</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>融通新能源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2781</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>004128</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2607</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009057</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>博时科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2580</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>013274</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>长城优化升级混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2506</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>002989</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>融通通乾研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2369</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>005165</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>富荣福锦混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>81.98</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.2283</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>007040</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.2261</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>013143</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>富国安诚回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>20.24</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>30.29</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.2186</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>008009</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华商高端装备制造股票</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.2171</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>002269</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>银华大数据灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.2156</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>000967</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.2146</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>010612</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.2137</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>006528</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>富国优质发展混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.2103</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011705</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>东方阿尔法产业先锋混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.2074</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001345</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>富国新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>10.81</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>48.33</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1957</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>200010</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>长城双动力混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1944</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>005498</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>银华积极成长混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1932</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>014045</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>银华积极成长混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1932</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>006769</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>长城研究精选混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1891</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>009682</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>南方创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1850</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>009891</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>融通产业趋势臻选股票</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1850</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>009647</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>南方核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1807</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>012454</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1760</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>519095</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>新华行业周期轮换混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1745</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>010155</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>长盛核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>76.97</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1731</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>217001</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>招商安泰混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>77.22</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1533</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010602</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>长城均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>86.56</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1483</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>000598</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>长盛生态环境主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1470</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>009277</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>融通行业景气混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1457</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>014461</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>平安品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1422</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>011011</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>融通产业趋势精选2年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1398</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>014260</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>万家新机遇龙头企业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>67.21</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1381</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>160805</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>长盛同智优势成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>82.53</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1378</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>009058</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>博时科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1323</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>006132</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>万家智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1320</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>012545</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>富荣福银混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>85.73</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1316</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>000082</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>嘉实研究阿尔法股票</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.1314</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>013431</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气汇选三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.1306</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>673050</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>西部利得新盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>82.19</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.1305</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>013144</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>富国安诚回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>30.29</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.1305</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>26.42</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.1268</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>005729</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>南方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.1244</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>002577</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>南方新兴龙头灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.1206</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>013961</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>万家新机遇成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>65.89</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.1194</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>630015</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>华商大盘量化精选混合</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.1175</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>010133</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>南方创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.1165</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>002272</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>新华科技创新主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>90.51</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.1155</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>001827</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>富国研究优选沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>83.98</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.1103</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>008445</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>融通产业趋势先锋股票</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.1062</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>008382</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>融通产业趋势股票</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.1051</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>217021</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>招商优势企业混合</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>79.96</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.1034</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>010994</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>博时创新经济混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>64.81</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.1034</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>008373</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.1003</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>002156</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>长盛盛世灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>33.67</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>003839</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>31.20</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0962</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>002455</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>民生加银鑫喜灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>25.89</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0958</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>002326</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>银华聚利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>000030</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>长城核心优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>080002</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>长盛创新先锋混合</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>79.13</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>006243</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>中银双息回报混合</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>160645</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>鹏华精选回报三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>83.72</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>010843</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>富国天润回报混合A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>34.72</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>014058</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>富国金安均衡精选混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>004260</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>德邦稳盈增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>49.51</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>000567</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>广发聚祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>79.49</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>001097</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极优选股票</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>005815</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>农银汇理睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>011838</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>鹏扬中国优质成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>005175</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>国寿安保消费新蓝海灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>013506</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>华安研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>84.22</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>010886</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>长盛优势企业精选混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>004737</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>富国新优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>28.83</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>160812</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>长盛同益成长回报灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>002179</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>华安事件驱动量化策略混合</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>010137</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合A</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>008526</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>013674</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>长城价值甄选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>39.38</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>012455</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>002604</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>011307</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>富国天益价值混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>004446</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>南方荣年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>27.83</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>011213</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>84.69</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>012476</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>平安优质企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>010683</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>中融景颐6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>21.61</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>000841</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>富国新回报灵活配置混合 - A/B</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>28.13</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>013638</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>华安逆向策略混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>007261</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>融通消费升级混合</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>013432</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气汇选三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>004091</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>75.53</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>006133</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>万家智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>162214</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>泰达宏利领先中小盘混合</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>81.99</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>008180</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>同泰慧利混合A</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>159845</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>华夏中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>009486</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合A</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>010156</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>长盛核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>76.97</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>001347</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>富国新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>48.33</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>007056</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>银华积极精选混合</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>010303</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合A</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>004258</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>国寿安保稳嘉混合A</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>21.49</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>080003</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>长盛积极配置债券</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>20.12</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>000679</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>002955</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>融通新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>007527</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>011454</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>005482</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>013418</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>博时核心资产精选混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>78.78</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>011462</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>76.27</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>002789</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>长盛同享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>79.04</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>009801</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>长盛制造精选混合C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>010291</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>014293</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>嘉实产业领先混合C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>009487</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>008837</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>融通通益混合</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>28.99</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>003840</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>31.20</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>012628</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>010028</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>010995</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>博时创新经济混合C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>64.81</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>008541</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>西部利得新享混合A</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>002157</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>长盛盛世灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>33.67</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>006539</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>南方优选价值混合C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>008181</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>同泰慧利混合C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>008527</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>009273</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>010304</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>006486</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>广发中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>002161</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>银华万物互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>010684</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>中融景颐6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>21.61</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>010138</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合C</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>960020</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>南方优选价值混合H</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>013675</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>长城价值甄选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>39.38</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>005650</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>万家量化同顺多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>006487</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>广发中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>010844</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>富国天润回报混合C</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>34.72</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>516300</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>008374</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>005164</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>富荣福锦混合A</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>81.98</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>004092</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>75.53</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>000843</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>富国新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>28.13</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>005483</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>007528</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>006457</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>平安估值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>58.87</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>005651</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>万家量化同顺多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>006458</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>平安估值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>58.87</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>004747</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>富国新优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>28.83</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>014948</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>融通新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>002416</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>014335</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>信诚周期轮动混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H215" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>004447</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>南方荣年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>27.83</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H216" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>008542</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>西部利得新享混合C</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H217" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H218" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>012546</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>富荣福银混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>85.73</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H219" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>007501</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H220" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>002790</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>长盛同享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>79.04</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H221" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>004259</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>国寿安保稳嘉混合C</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>21.49</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G222" t="n">
+        <v>0</v>
+      </c>
+      <c r="H222" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>012716</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>长盛创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>79.13</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="G223" t="n">
+        <v>0</v>
+      </c>
+      <c r="H223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>014454</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>中银双息回报混合C</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G224" t="n">
+        <v>0</v>
+      </c>
+      <c r="H224" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>014538</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>长城研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G225" t="n">
+        <v>0</v>
+      </c>
+      <c r="H225" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>224</v>
+      </c>
+      <c r="D2" t="n">
+        <v>82.98</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>103</v>
+      </c>
+      <c r="D3" t="n">
+        <v>39.52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>71</v>
+      </c>
+      <c r="D4" t="n">
+        <v>23.49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>10</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.58</v>
       </c>
     </row>
